--- a/수정리스트_20160721.xlsx
+++ b/수정리스트_20160721.xlsx
@@ -1351,7 +1351,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1661,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -2378,7 +2378,9 @@
       <c r="E31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="16"/>
+      <c r="F31" s="28" t="s">
+        <v>202</v>
+      </c>
       <c r="G31" s="16" t="s">
         <v>99</v>
       </c>
@@ -3703,12 +3705,10 @@
       <c r="D92" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="E92" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" s="28" t="s">
-        <v>202</v>
-      </c>
+      <c r="E92" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="16"/>
       <c r="G92" s="16" t="s">
         <v>99</v>
       </c>
